--- a/VerveStacks_USA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_USA_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0DA24-D9DF-4C0D-802F-339CBAF0A75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C86D77-21D6-4B30-B668-D221FE3D831C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA7B8F-5B1C-4C13-AF35-304BFB7D837F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74F1B05-6F59-4E1C-B1FF-F4348B1711C3}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D452C9B-6A27-4DB7-8BED-DFB7C8EF2EFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2097D632-192F-4A19-9583-38F0A22ED974}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E075DD-6015-41D5-8DCB-226DA53EF368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9532186-D34A-49A4-A313-137024A6FEBC}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
